--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H2">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I2">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J2">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N2">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O2">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P2">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q2">
-        <v>0.09661346819200001</v>
+        <v>0.023121216544</v>
       </c>
       <c r="R2">
-        <v>0.386453872768</v>
+        <v>0.09248486617599999</v>
       </c>
       <c r="S2">
-        <v>3.470415021005845E-05</v>
+        <v>3.490077141092913E-08</v>
       </c>
       <c r="T2">
-        <v>1.559699317650413E-05</v>
+        <v>1.552145904818963E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H3">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I3">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J3">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.310756</v>
       </c>
       <c r="O3">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P3">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q3">
-        <v>0.554981083008</v>
+        <v>0.135898705536</v>
       </c>
       <c r="R3">
-        <v>3.329886498048</v>
+        <v>0.815392233216</v>
       </c>
       <c r="S3">
-        <v>0.0001993526081702692</v>
+        <v>2.051349524765345E-07</v>
       </c>
       <c r="T3">
-        <v>0.0001343917622473065</v>
+        <v>1.368448447769751E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H4">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I4">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J4">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N4">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O4">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P4">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q4">
-        <v>3.238960305920001</v>
+        <v>1.852981125898667</v>
       </c>
       <c r="R4">
-        <v>19.43376183552</v>
+        <v>11.117886755392</v>
       </c>
       <c r="S4">
-        <v>0.001163454403248223</v>
+        <v>2.797018512442312E-06</v>
       </c>
       <c r="T4">
-        <v>0.0007843322893140651</v>
+        <v>1.865881750294493E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H5">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I5">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J5">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N5">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O5">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P5">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q5">
-        <v>0.094831981712</v>
+        <v>0.027527776512</v>
       </c>
       <c r="R5">
-        <v>0.379327926848</v>
+        <v>0.110111106048</v>
       </c>
       <c r="S5">
-        <v>3.406422934233591E-05</v>
+        <v>4.155233932730802E-08</v>
       </c>
       <c r="T5">
-        <v>1.530939525674645E-05</v>
+        <v>1.847961827638357E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H6">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I6">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J6">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N6">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O6">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P6">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q6">
-        <v>0.04853062820266667</v>
+        <v>48.333779877472</v>
       </c>
       <c r="R6">
-        <v>0.291183769216</v>
+        <v>290.002679264832</v>
       </c>
       <c r="S6">
-        <v>1.74324992410665E-05</v>
+        <v>7.295836703573309E-05</v>
       </c>
       <c r="T6">
-        <v>1.175196208810452E-05</v>
+        <v>4.867028408202909E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H7">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I7">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J7">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N7">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O7">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P7">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q7">
-        <v>2.149534010421333</v>
+        <v>0.4797739500586666</v>
       </c>
       <c r="R7">
-        <v>12.897204062528</v>
+        <v>2.878643700352</v>
       </c>
       <c r="S7">
-        <v>0.0007721257975238309</v>
+        <v>7.242041493816326E-07</v>
       </c>
       <c r="T7">
-        <v>0.0005205216403148626</v>
+        <v>4.831141802629042E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H8">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I8">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J8">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N8">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O8">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P8">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q8">
-        <v>24.756983962235</v>
+        <v>38.63895269912233</v>
       </c>
       <c r="R8">
-        <v>148.54190377341</v>
+        <v>231.833716194734</v>
       </c>
       <c r="S8">
-        <v>0.008892860449497395</v>
+        <v>5.832432100376299E-05</v>
       </c>
       <c r="T8">
-        <v>0.005995041641023117</v>
+        <v>3.890796062848142E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H9">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I9">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J9">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.310756</v>
       </c>
       <c r="O9">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P9">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q9">
-        <v>142.21265449314</v>
+        <v>227.106720145316</v>
       </c>
       <c r="R9">
-        <v>1279.91389043826</v>
+        <v>2043.960481307844</v>
       </c>
       <c r="S9">
-        <v>0.05108365754444309</v>
+        <v>0.0003428106696113441</v>
       </c>
       <c r="T9">
-        <v>0.05165638028852845</v>
+        <v>0.0003430317869127266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H10">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I10">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J10">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N10">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O10">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P10">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q10">
-        <v>829.9762946986</v>
+        <v>3096.603932570523</v>
       </c>
       <c r="R10">
-        <v>7469.7866522874</v>
+        <v>27869.43539313471</v>
       </c>
       <c r="S10">
-        <v>0.2981325744850241</v>
+        <v>0.004674229221250617</v>
       </c>
       <c r="T10">
-        <v>0.3014750780246688</v>
+        <v>0.004677244159358052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H11">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I11">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J11">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N11">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O11">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P11">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q11">
-        <v>24.3004820578975</v>
+        <v>46.002962367272</v>
       </c>
       <c r="R11">
-        <v>145.802892347385</v>
+        <v>276.017774203632</v>
       </c>
       <c r="S11">
-        <v>0.00872888216618163</v>
+        <v>6.944006907034378E-05</v>
       </c>
       <c r="T11">
-        <v>0.005884497160730833</v>
+        <v>4.632323920673937E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H12">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I12">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J12">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N12">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O12">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P12">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q12">
-        <v>12.43586434246333</v>
+        <v>80772.85340507174</v>
       </c>
       <c r="R12">
-        <v>111.92277908217</v>
+        <v>726955.6806456457</v>
       </c>
       <c r="S12">
-        <v>0.004467038728752452</v>
+        <v>0.121924159463419</v>
       </c>
       <c r="T12">
-        <v>0.004517120786334976</v>
+        <v>0.1220028021181078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H13">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I13">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J13">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N13">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O13">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P13">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q13">
-        <v>550.8132563518316</v>
+        <v>801.7728188008575</v>
       </c>
       <c r="R13">
-        <v>4957.319307166485</v>
+        <v>7215.955369207717</v>
       </c>
       <c r="S13">
-        <v>0.1978554992781869</v>
+        <v>0.001210251624053343</v>
       </c>
       <c r="T13">
-        <v>0.2000737496918422</v>
+        <v>0.001211032251953309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H14">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I14">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J14">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N14">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O14">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P14">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q14">
-        <v>0.004498093108000001</v>
+        <v>0.2594485234645</v>
       </c>
       <c r="R14">
-        <v>0.017992372432</v>
+        <v>1.037794093858</v>
       </c>
       <c r="S14">
-        <v>1.615742626779923E-06</v>
+        <v>3.916296356251797E-07</v>
       </c>
       <c r="T14">
-        <v>7.261588764553383E-07</v>
+        <v>1.741698852395603E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H15">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I15">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J15">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.310756</v>
       </c>
       <c r="O15">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P15">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q15">
-        <v>0.025838598192</v>
+        <v>1.524950835738</v>
       </c>
       <c r="R15">
-        <v>0.155031589152</v>
+        <v>9.149705014427999</v>
       </c>
       <c r="S15">
-        <v>9.281382913306529E-06</v>
+        <v>2.301866791036498E-06</v>
       </c>
       <c r="T15">
-        <v>6.25696055476704E-06</v>
+        <v>1.535567683194779E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H16">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I16">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J16">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N16">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O16">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P16">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q16">
-        <v>0.15079828208</v>
+        <v>20.79273018386017</v>
       </c>
       <c r="R16">
-        <v>0.9047896924800001</v>
+        <v>124.756381103161</v>
       </c>
       <c r="S16">
-        <v>5.41676676208631E-05</v>
+        <v>3.138599224547923E-05</v>
       </c>
       <c r="T16">
-        <v>3.651664442823089E-05</v>
+        <v>2.093749107673523E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H17">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I17">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J17">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N17">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O17">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P17">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q17">
-        <v>0.004415151338</v>
+        <v>0.308895552996</v>
       </c>
       <c r="R17">
-        <v>0.017660605352</v>
+        <v>1.235582211984</v>
       </c>
       <c r="S17">
-        <v>1.585949434395526E-06</v>
+        <v>4.66268419070862E-07</v>
       </c>
       <c r="T17">
-        <v>7.127690018866464E-07</v>
+        <v>2.073640747610008E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H18">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I18">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J18">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N18">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O18">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P18">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q18">
-        <v>0.002259470530666667</v>
+        <v>542.3645334061135</v>
       </c>
       <c r="R18">
-        <v>0.013556823184</v>
+        <v>3254.187200436681</v>
       </c>
       <c r="S18">
-        <v>8.116156697286373E-07</v>
+        <v>0.0008186827265676077</v>
       </c>
       <c r="T18">
-        <v>5.471433813857994E-07</v>
+        <v>0.0005461405249870836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H19">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I19">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J19">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N19">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O19">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P19">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q19">
-        <v>0.1000771869453333</v>
+        <v>5.383654562577666</v>
       </c>
       <c r="R19">
-        <v>0.600463121672</v>
+        <v>32.301927375466</v>
       </c>
       <c r="S19">
-        <v>3.59483392258403E-05</v>
+        <v>8.126462415434086E-06</v>
       </c>
       <c r="T19">
-        <v>2.42342485647256E-05</v>
+        <v>5.421136058971757E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H20">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I20">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J20">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N20">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O20">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P20">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q20">
-        <v>0.1801038000763333</v>
+        <v>236.736149289765</v>
       </c>
       <c r="R20">
-        <v>1.080622800458</v>
+        <v>1420.41689573859</v>
       </c>
       <c r="S20">
-        <v>6.469438938709958E-05</v>
+        <v>0.0003573459993051168</v>
       </c>
       <c r="T20">
-        <v>4.361313893530694E-05</v>
+        <v>0.00023838432805436</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H21">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I21">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J21">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.310756</v>
       </c>
       <c r="O21">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P21">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q21">
-        <v>1.034578344932</v>
+        <v>1391.45516763066</v>
       </c>
       <c r="R21">
-        <v>9.311205104388</v>
+        <v>12523.09650867594</v>
       </c>
       <c r="S21">
-        <v>0.0003716268855522443</v>
+        <v>0.002100359150290294</v>
       </c>
       <c r="T21">
-        <v>0.0003757933681398353</v>
+        <v>0.002101713909019866</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H22">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I22">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J22">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N22">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O22">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P22">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q22">
-        <v>6.037968311346667</v>
+        <v>18972.51451354529</v>
       </c>
       <c r="R22">
-        <v>54.34171480212</v>
+        <v>170752.6306219077</v>
       </c>
       <c r="S22">
-        <v>0.002168875242363969</v>
+        <v>0.02863843218922709</v>
       </c>
       <c r="T22">
-        <v>0.002193191515710388</v>
+        <v>0.02865690434719315</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H23">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I23">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J23">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N23">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O23">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P23">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q23">
-        <v>0.1767828088021667</v>
+        <v>281.85453812772</v>
       </c>
       <c r="R23">
-        <v>1.060696852813</v>
+        <v>1691.12722876632</v>
       </c>
       <c r="S23">
-        <v>6.350146895704181E-05</v>
+        <v>0.0004254508316034637</v>
       </c>
       <c r="T23">
-        <v>4.280894238986044E-05</v>
+        <v>0.0002838168352498137</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H24">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I24">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J24">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N24">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O24">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P24">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q24">
-        <v>0.09046927641622222</v>
+        <v>494885.4186386297</v>
       </c>
       <c r="R24">
-        <v>0.814223487746</v>
+        <v>4453968.767747668</v>
       </c>
       <c r="S24">
-        <v>3.249711884790666E-05</v>
+        <v>0.7470144504567976</v>
       </c>
       <c r="T24">
-        <v>3.286145922555579E-05</v>
+        <v>0.7474962844077832</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H25">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I25">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J25">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N25">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O25">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P25">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q25">
-        <v>4.007093947821444</v>
+        <v>4912.364245639269</v>
       </c>
       <c r="R25">
-        <v>36.063845530393</v>
+        <v>44211.27821075342</v>
       </c>
       <c r="S25">
-        <v>0.00143937271762827</v>
+        <v>0.007415064051582865</v>
       </c>
       <c r="T25">
-        <v>0.001455510197445264</v>
+        <v>0.007419846863490453</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H26">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I26">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J26">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N26">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O26">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P26">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q26">
-        <v>18.45916813583567</v>
+        <v>25.55209626160933</v>
       </c>
       <c r="R26">
-        <v>110.755008815014</v>
+        <v>153.312577569656</v>
       </c>
       <c r="S26">
-        <v>0.006630646386336959</v>
+        <v>3.857011022752195E-05</v>
       </c>
       <c r="T26">
-        <v>0.004469990439941758</v>
+        <v>2.572999229724064E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H27">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I27">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J27">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.310756</v>
       </c>
       <c r="O27">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P27">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q27">
-        <v>106.035828287356</v>
+        <v>150.186595894544</v>
       </c>
       <c r="R27">
-        <v>954.3224545862039</v>
+        <v>1351.679363050896</v>
       </c>
       <c r="S27">
-        <v>0.03808871973438871</v>
+        <v>0.0002267020873372374</v>
       </c>
       <c r="T27">
-        <v>0.03851575016121355</v>
+        <v>0.0002268483131061921</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H28">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I28">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J28">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N28">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O28">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P28">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q28">
-        <v>618.8424242617733</v>
+        <v>2047.796750218784</v>
       </c>
       <c r="R28">
-        <v>5569.58181835596</v>
+        <v>18430.17075196905</v>
       </c>
       <c r="S28">
-        <v>0.2222919935474962</v>
+        <v>0.003091086757455927</v>
       </c>
       <c r="T28">
-        <v>0.2247842129118197</v>
+        <v>0.003093080548264489</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H29">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I29">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J29">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N29">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O29">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P29">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q29">
-        <v>18.11879366132983</v>
+        <v>30.421945746848</v>
       </c>
       <c r="R29">
-        <v>108.712761967979</v>
+        <v>182.531674481088</v>
       </c>
       <c r="S29">
-        <v>0.006508381787912178</v>
+        <v>4.592099954454843E-05</v>
       </c>
       <c r="T29">
-        <v>0.004387566863979655</v>
+        <v>3.063374612084261E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H30">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I30">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J30">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N30">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O30">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P30">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q30">
-        <v>9.272361736879777</v>
+        <v>53415.41582668552</v>
       </c>
       <c r="R30">
-        <v>83.45125563191799</v>
+        <v>480738.7424401697</v>
       </c>
       <c r="S30">
-        <v>0.00333068919417303</v>
+        <v>0.08062894156279379</v>
       </c>
       <c r="T30">
-        <v>0.003368031106375043</v>
+        <v>0.08068094826956261</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H31">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I31">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J31">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N31">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O31">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P31">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q31">
-        <v>410.6943933863465</v>
+        <v>530.2156195969235</v>
       </c>
       <c r="R31">
-        <v>3696.249540477118</v>
+        <v>4771.940576372312</v>
       </c>
       <c r="S31">
-        <v>0.1475239444896441</v>
+        <v>0.0008003443115910978</v>
       </c>
       <c r="T31">
-        <v>0.1491779043344907</v>
+        <v>0.0008008605439900384</v>
       </c>
     </row>
   </sheetData>
